--- a/biology/Mycologie/Corallorhiza/Corallorhiza.xlsx
+++ b/biology/Mycologie/Corallorhiza/Corallorhiza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corallorhiza est un genre d'orchidées terrestres comptant une quinzaine d'espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Corallorhiza littéralement Racine de corail.
 </t>
@@ -542,7 +556,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plantes sans chlorophylle, ne pratiquant pas la photosynthèse, mais vivant en symbiose avec des champignons.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'exception de Corallorhiza trifida, qui est circumboréal, le genre est limité à l'Amérique du Nord.
 </t>
@@ -604,7 +622,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La vie de ces orchidées est conditionnée par la symbiose avec un champignon, ce qui fait que leur culture n'a jamais pu être réalisée.
 </t>
@@ -635,7 +655,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Corallorhiza anandae
@@ -653,8 +675,7 @@
 Corallorhiza striata
 Corallorhiza trifida
 Corallorhiza wisteriana
-Espèce européenne
-Corallorhiza trifida Châtel., 1760 - Racine de corail. C'est l'espèce type.</t>
+</t>
         </is>
       </c>
     </row>
@@ -679,10 +700,48 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèce européenne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Corallorhiza trifida Châtel., 1760 - Racine de corail. C'est l'espèce type.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Corallorhiza</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corallorhiza</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Corallorhiza sont pour la plupart protégées dans leur aire de répartition, en Europe, Canada et États-Unis.
 </t>
